--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H2">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I2">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J2">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8795853333333333</v>
+        <v>2.265267666666666</v>
       </c>
       <c r="N2">
-        <v>2.638756</v>
+        <v>6.795802999999999</v>
       </c>
       <c r="O2">
-        <v>0.00267438553742657</v>
+        <v>0.00491341259724716</v>
       </c>
       <c r="P2">
-        <v>0.002678020760105722</v>
+        <v>0.004930873713011002</v>
       </c>
       <c r="Q2">
-        <v>0.4606150902626666</v>
+        <v>3.248266979010666</v>
       </c>
       <c r="R2">
-        <v>4.145535812363999</v>
+        <v>29.234402811096</v>
       </c>
       <c r="S2">
-        <v>3.775397774462218E-06</v>
+        <v>1.907877480406944E-05</v>
       </c>
       <c r="T2">
-        <v>3.783056704738258E-06</v>
+        <v>1.916230277080535E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H3">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I3">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J3">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.09574</v>
       </c>
       <c r="O3">
-        <v>0.002124037518514922</v>
+        <v>0.001515234522918743</v>
       </c>
       <c r="P3">
-        <v>0.002126924667450862</v>
+        <v>0.001520619310963793</v>
       </c>
       <c r="Q3">
-        <v>0.36582748434</v>
+        <v>1.00172459952</v>
       </c>
       <c r="R3">
-        <v>3.29244735906</v>
+        <v>9.01552139568</v>
       </c>
       <c r="S3">
-        <v>2.998478120694543E-06</v>
+        <v>5.883653706247887E-06</v>
       </c>
       <c r="T3">
-        <v>3.004560959174762E-06</v>
+        <v>5.909412678514607E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H4">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I4">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J4">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>162.999588</v>
+        <v>192.8430073333333</v>
       </c>
       <c r="N4">
-        <v>488.9987639999999</v>
+        <v>578.5290219999999</v>
       </c>
       <c r="O4">
-        <v>0.4956014206167863</v>
+        <v>0.4182804864366844</v>
       </c>
       <c r="P4">
-        <v>0.4962750787333268</v>
+        <v>0.4197669571636735</v>
       </c>
       <c r="Q4">
-        <v>85.35848324672399</v>
+        <v>276.5260733075893</v>
       </c>
       <c r="R4">
-        <v>768.2263492205158</v>
+        <v>2488.734659768304</v>
       </c>
       <c r="S4">
-        <v>0.0006996345419282325</v>
+        <v>0.001624182591572554</v>
       </c>
       <c r="T4">
-        <v>0.0007010538499046221</v>
+        <v>0.001631293355805327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H5">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I5">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J5">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3393445</v>
+        <v>4.897851999999999</v>
       </c>
       <c r="N5">
-        <v>2.678689</v>
+        <v>9.795703999999999</v>
       </c>
       <c r="O5">
-        <v>0.004072286593112612</v>
+        <v>0.01062354267019756</v>
       </c>
       <c r="P5">
-        <v>0.002718547964217547</v>
+        <v>0.007107530832491278</v>
       </c>
       <c r="Q5">
-        <v>0.7013785523484999</v>
+        <v>7.023245488288</v>
       </c>
       <c r="R5">
-        <v>4.208271314090999</v>
+        <v>42.13947292972799</v>
       </c>
       <c r="S5">
-        <v>5.748797817461954E-06</v>
+        <v>4.125120254294944E-05</v>
       </c>
       <c r="T5">
-        <v>3.840306713223436E-06</v>
+        <v>2.762120177721294E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H6">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I6">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J6">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>162.9753976666667</v>
+        <v>260.332835</v>
       </c>
       <c r="N6">
-        <v>488.926193</v>
+        <v>780.998505</v>
       </c>
       <c r="O6">
-        <v>0.4955278697341596</v>
+        <v>0.5646673237729521</v>
       </c>
       <c r="P6">
-        <v>0.4962014278748991</v>
+        <v>0.5666740189798604</v>
       </c>
       <c r="Q6">
-        <v>85.34581542229633</v>
+        <v>373.30270675124</v>
       </c>
       <c r="R6">
-        <v>768.1123388006669</v>
+        <v>3359.72436076116</v>
       </c>
       <c r="S6">
-        <v>0.0006995307110352321</v>
+        <v>0.002192602492922456</v>
       </c>
       <c r="T6">
-        <v>0.0007009498083759172</v>
+        <v>0.002202201831977227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J7">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8795853333333333</v>
+        <v>2.265267666666666</v>
       </c>
       <c r="N7">
-        <v>2.638756</v>
+        <v>6.795802999999999</v>
       </c>
       <c r="O7">
-        <v>0.00267438553742657</v>
+        <v>0.00491341259724716</v>
       </c>
       <c r="P7">
-        <v>0.002678020760105722</v>
+        <v>0.004930873713011002</v>
       </c>
       <c r="Q7">
-        <v>255.8693460224734</v>
+        <v>658.9611427913617</v>
       </c>
       <c r="R7">
-        <v>2302.82411420226</v>
+        <v>5930.650285122255</v>
       </c>
       <c r="S7">
-        <v>0.002097214311792262</v>
+        <v>0.003870424238274213</v>
       </c>
       <c r="T7">
-        <v>0.002101468808708212</v>
+        <v>0.003887369176843301</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J8">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.09574</v>
       </c>
       <c r="O8">
-        <v>0.002124037518514922</v>
+        <v>0.001515234522918743</v>
       </c>
       <c r="P8">
-        <v>0.002126924667450862</v>
+        <v>0.001520619310963793</v>
       </c>
       <c r="Q8">
         <v>203.2153117731001</v>
@@ -948,10 +948,10 @@
         <v>1828.9378059579</v>
       </c>
       <c r="S8">
-        <v>0.001665639385299556</v>
+        <v>0.001193590057439982</v>
       </c>
       <c r="T8">
-        <v>0.00166901837121816</v>
+        <v>0.001198815662943376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J9">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>162.999588</v>
+        <v>192.8430073333333</v>
       </c>
       <c r="N9">
-        <v>488.9987639999999</v>
+        <v>578.5290219999999</v>
       </c>
       <c r="O9">
-        <v>0.4956014206167863</v>
+        <v>0.4182804864366844</v>
       </c>
       <c r="P9">
-        <v>0.4962750787333268</v>
+        <v>0.4197669571636735</v>
       </c>
       <c r="Q9">
-        <v>47416.20443514967</v>
+        <v>56097.58633013476</v>
       </c>
       <c r="R9">
-        <v>426745.8399163469</v>
+        <v>504878.2769712129</v>
       </c>
       <c r="S9">
-        <v>0.3886434389195237</v>
+        <v>0.3294905325086492</v>
       </c>
       <c r="T9">
-        <v>0.3894318573005112</v>
+        <v>0.3309330608953938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J10">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.3393445</v>
+        <v>4.897851999999999</v>
       </c>
       <c r="N10">
-        <v>2.678689</v>
+        <v>9.795703999999999</v>
       </c>
       <c r="O10">
-        <v>0.004072286593112612</v>
+        <v>0.01062354267019756</v>
       </c>
       <c r="P10">
-        <v>0.002718547964217547</v>
+        <v>0.007107530832491278</v>
       </c>
       <c r="Q10">
-        <v>389.6122278609275</v>
+        <v>1424.77385725114</v>
       </c>
       <c r="R10">
-        <v>2337.673367165565</v>
+        <v>8548.643143506841</v>
       </c>
       <c r="S10">
-        <v>0.003193428024971143</v>
+        <v>0.008368443771668999</v>
       </c>
       <c r="T10">
-        <v>0.002133270898002616</v>
+        <v>0.005603387531257252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J11">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.9753976666667</v>
+        <v>260.332835</v>
       </c>
       <c r="N11">
-        <v>488.926193</v>
+        <v>780.998505</v>
       </c>
       <c r="O11">
-        <v>0.4955278697341596</v>
+        <v>0.5646673237729521</v>
       </c>
       <c r="P11">
-        <v>0.4962014278748991</v>
+        <v>0.5666740189798604</v>
       </c>
       <c r="Q11">
-        <v>47409.16752294172</v>
+        <v>75730.22163431534</v>
       </c>
       <c r="R11">
-        <v>426682.5077064754</v>
+        <v>681571.9947088381</v>
       </c>
       <c r="S11">
-        <v>0.3885857613851776</v>
+        <v>0.4448032916504385</v>
       </c>
       <c r="T11">
-        <v>0.3893740627590998</v>
+        <v>0.4467506658885931</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H12">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I12">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J12">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8795853333333333</v>
+        <v>2.265267666666666</v>
       </c>
       <c r="N12">
-        <v>2.638756</v>
+        <v>6.795802999999999</v>
       </c>
       <c r="O12">
-        <v>0.00267438553742657</v>
+        <v>0.00491341259724716</v>
       </c>
       <c r="P12">
-        <v>0.002678020760105722</v>
+        <v>0.004930873713011002</v>
       </c>
       <c r="Q12">
-        <v>34.02609160112222</v>
+        <v>123.9268129816041</v>
       </c>
       <c r="R12">
-        <v>306.2348244101</v>
+        <v>1115.341316834437</v>
       </c>
       <c r="S12">
-        <v>0.000278892362018076</v>
+        <v>0.0007278871386926999</v>
       </c>
       <c r="T12">
-        <v>0.0002794581347611934</v>
+        <v>0.0007310738701957756</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H13">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I13">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J13">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.09574</v>
       </c>
       <c r="O13">
-        <v>0.002124037518514922</v>
+        <v>0.001515234522918743</v>
       </c>
       <c r="P13">
-        <v>0.002126924667450862</v>
+        <v>0.001520619310963793</v>
       </c>
       <c r="Q13">
-        <v>27.0240375435</v>
+        <v>38.21746731594</v>
       </c>
       <c r="R13">
-        <v>243.2163378915</v>
+        <v>343.95720584346</v>
       </c>
       <c r="S13">
-        <v>0.0002215005399422163</v>
+        <v>0.0002244712202581268</v>
       </c>
       <c r="T13">
-        <v>0.0002219498852278966</v>
+        <v>0.0002254539680923792</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H14">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I14">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J14">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>162.999588</v>
+        <v>192.8430073333333</v>
       </c>
       <c r="N14">
-        <v>488.9987639999999</v>
+        <v>578.5290219999999</v>
       </c>
       <c r="O14">
-        <v>0.4956014206167863</v>
+        <v>0.4182804864366844</v>
       </c>
       <c r="P14">
-        <v>0.4962750787333268</v>
+        <v>0.4197669571636735</v>
       </c>
       <c r="Q14">
-        <v>6305.5154537591</v>
+        <v>10549.9317613863</v>
       </c>
       <c r="R14">
-        <v>56749.63908383189</v>
+        <v>94949.38585247671</v>
       </c>
       <c r="S14">
-        <v>0.05168269454086688</v>
+        <v>0.06196527981671423</v>
       </c>
       <c r="T14">
-        <v>0.05178754022272958</v>
+        <v>0.06223656735401496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H15">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I15">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J15">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.3393445</v>
+        <v>4.897851999999999</v>
       </c>
       <c r="N15">
-        <v>2.678689</v>
+        <v>9.795703999999999</v>
       </c>
       <c r="O15">
-        <v>0.004072286593112612</v>
+        <v>0.01062354267019756</v>
       </c>
       <c r="P15">
-        <v>0.002718547964217547</v>
+        <v>0.007107530832491278</v>
       </c>
       <c r="Q15">
-        <v>51.81152631292083</v>
+        <v>267.9485509581026</v>
       </c>
       <c r="R15">
-        <v>310.869157877525</v>
+        <v>1607.691305748616</v>
       </c>
       <c r="S15">
-        <v>0.0004246693720384746</v>
+        <v>0.001573802306226498</v>
       </c>
       <c r="T15">
-        <v>0.0002836872494256106</v>
+        <v>0.001053795001793348</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H16">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I16">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J16">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>162.9753976666667</v>
+        <v>260.332835</v>
       </c>
       <c r="N16">
-        <v>488.926193</v>
+        <v>780.998505</v>
       </c>
       <c r="O16">
-        <v>0.4955278697341596</v>
+        <v>0.5646673237729521</v>
       </c>
       <c r="P16">
-        <v>0.4962014278748991</v>
+        <v>0.5666740189798604</v>
       </c>
       <c r="Q16">
-        <v>6304.579669058437</v>
+        <v>14242.12203738799</v>
       </c>
       <c r="R16">
-        <v>56741.21702152592</v>
+        <v>128179.0983364919</v>
       </c>
       <c r="S16">
-        <v>0.05167502445026206</v>
+        <v>0.08365144886155858</v>
       </c>
       <c r="T16">
-        <v>0.05177985457225726</v>
+        <v>0.08401767968663376</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H17">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I17">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J17">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8795853333333333</v>
+        <v>2.265267666666666</v>
       </c>
       <c r="N17">
-        <v>2.638756</v>
+        <v>6.795802999999999</v>
       </c>
       <c r="O17">
-        <v>0.00267438553742657</v>
+        <v>0.00491341259724716</v>
       </c>
       <c r="P17">
-        <v>0.002678020760105722</v>
+        <v>0.004930873713011002</v>
       </c>
       <c r="Q17">
-        <v>0.6538912132753334</v>
+        <v>2.059631198422</v>
       </c>
       <c r="R17">
-        <v>3.923347279652</v>
+        <v>12.357787190532</v>
       </c>
       <c r="S17">
-        <v>5.359571328703782E-06</v>
+        <v>1.209729374710981E-05</v>
       </c>
       <c r="T17">
-        <v>3.580295986597758E-06</v>
+        <v>8.10017092711997E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H18">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I18">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J18">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.09574</v>
       </c>
       <c r="O18">
-        <v>0.002124037518514922</v>
+        <v>0.001515234522918743</v>
       </c>
       <c r="P18">
-        <v>0.002126924667450862</v>
+        <v>0.001520619310963793</v>
       </c>
       <c r="Q18">
-        <v>0.5193303099300001</v>
+        <v>0.6351643047600001</v>
       </c>
       <c r="R18">
-        <v>3.11598185958</v>
+        <v>3.81098582856</v>
       </c>
       <c r="S18">
-        <v>4.256652762293166E-06</v>
+        <v>3.730652933519102E-06</v>
       </c>
       <c r="T18">
-        <v>2.843525324415136E-06</v>
+        <v>2.49799063021727E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H19">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I19">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J19">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>162.999588</v>
+        <v>192.8430073333333</v>
       </c>
       <c r="N19">
-        <v>488.9987639999999</v>
+        <v>578.5290219999999</v>
       </c>
       <c r="O19">
-        <v>0.4956014206167863</v>
+        <v>0.4182804864366844</v>
       </c>
       <c r="P19">
-        <v>0.4962750787333268</v>
+        <v>0.4197669571636735</v>
       </c>
       <c r="Q19">
-        <v>121.175279215698</v>
+        <v>175.337104813628</v>
       </c>
       <c r="R19">
-        <v>727.0516752941879</v>
+        <v>1052.022628881768</v>
       </c>
       <c r="S19">
-        <v>0.0009932042808452116</v>
+        <v>0.001029846733397386</v>
       </c>
       <c r="T19">
-        <v>0.000663479424471404</v>
+        <v>0.0006895703075117907</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H20">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I20">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J20">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1.3393445</v>
+        <v>4.897851999999999</v>
       </c>
       <c r="N20">
-        <v>2.678689</v>
+        <v>9.795703999999999</v>
       </c>
       <c r="O20">
-        <v>0.004072286593112612</v>
+        <v>0.01062354267019756</v>
       </c>
       <c r="P20">
-        <v>0.002718547964217547</v>
+        <v>0.007107530832491278</v>
       </c>
       <c r="Q20">
-        <v>0.99568008572825</v>
+        <v>4.453234791143999</v>
       </c>
       <c r="R20">
-        <v>3.982720342913</v>
+        <v>17.812939164576</v>
       </c>
       <c r="S20">
-        <v>8.16101873169452E-06</v>
+        <v>2.615618244401844E-05</v>
       </c>
       <c r="T20">
-        <v>3.63447756292873E-06</v>
+        <v>1.167586475821515E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H21">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I21">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J21">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>162.9753976666667</v>
+        <v>260.332835</v>
       </c>
       <c r="N21">
-        <v>488.926193</v>
+        <v>780.998505</v>
       </c>
       <c r="O21">
-        <v>0.4955278697341596</v>
+        <v>0.5646673237729521</v>
       </c>
       <c r="P21">
-        <v>0.4962014278748991</v>
+        <v>0.5666740189798604</v>
       </c>
       <c r="Q21">
-        <v>121.1572959162802</v>
+        <v>236.70034090437</v>
       </c>
       <c r="R21">
-        <v>726.943775497681</v>
+        <v>1420.20204542622</v>
       </c>
       <c r="S21">
-        <v>0.0009930568820516533</v>
+        <v>0.001390265187357345</v>
       </c>
       <c r="T21">
-        <v>0.0006633809592627818</v>
+        <v>0.0009309012318816719</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H22">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I22">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J22">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8795853333333333</v>
+        <v>2.265267666666666</v>
       </c>
       <c r="N22">
-        <v>2.638756</v>
+        <v>6.795802999999999</v>
       </c>
       <c r="O22">
-        <v>0.00267438553742657</v>
+        <v>0.00491341259724716</v>
       </c>
       <c r="P22">
-        <v>0.002678020760105722</v>
+        <v>0.004930873713011002</v>
       </c>
       <c r="Q22">
-        <v>35.27682353656267</v>
+        <v>48.33982812541011</v>
       </c>
       <c r="R22">
-        <v>317.491411829064</v>
+        <v>435.058453128691</v>
       </c>
       <c r="S22">
-        <v>0.0002891438945130664</v>
+        <v>0.0002839251517290671</v>
       </c>
       <c r="T22">
-        <v>0.0002897304639449812</v>
+        <v>0.0002851681922740005</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H23">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I23">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J23">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.09574</v>
       </c>
       <c r="O23">
-        <v>0.002124037518514922</v>
+        <v>0.001515234522918743</v>
       </c>
       <c r="P23">
-        <v>0.002126924667450862</v>
+        <v>0.001520619310963793</v>
       </c>
       <c r="Q23">
-        <v>28.01738779884</v>
+        <v>14.90739378342</v>
       </c>
       <c r="R23">
-        <v>252.15649018956</v>
+        <v>134.16654405078</v>
       </c>
       <c r="S23">
-        <v>0.0002296424623901619</v>
+        <v>8.755893858086752E-05</v>
       </c>
       <c r="T23">
-        <v>0.0002301083247212152</v>
+        <v>8.794227661930664E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H24">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I24">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J24">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>162.999588</v>
+        <v>192.8430073333333</v>
       </c>
       <c r="N24">
-        <v>488.9987639999999</v>
+        <v>578.5290219999999</v>
       </c>
       <c r="O24">
-        <v>0.4956014206167863</v>
+        <v>0.4182804864366844</v>
       </c>
       <c r="P24">
-        <v>0.4962750787333268</v>
+        <v>0.4197669571636735</v>
       </c>
       <c r="Q24">
-        <v>6537.293750246424</v>
+        <v>4115.186018347148</v>
       </c>
       <c r="R24">
-        <v>58835.64375221781</v>
+        <v>37036.67416512434</v>
       </c>
       <c r="S24">
-        <v>0.05358244833362231</v>
+        <v>0.02417064478635105</v>
       </c>
       <c r="T24">
-        <v>0.05369114793571</v>
+        <v>0.0242764652509476</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H25">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I25">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J25">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.3393445</v>
+        <v>4.897851999999999</v>
       </c>
       <c r="N25">
-        <v>2.678689</v>
+        <v>9.795703999999999</v>
       </c>
       <c r="O25">
-        <v>0.004072286593112612</v>
+        <v>0.01062354267019756</v>
       </c>
       <c r="P25">
-        <v>0.002718547964217547</v>
+        <v>0.007107530832491278</v>
       </c>
       <c r="Q25">
-        <v>53.716015707211</v>
+        <v>104.5180343796147</v>
       </c>
       <c r="R25">
-        <v>322.296094243266</v>
+        <v>627.1082062776879</v>
       </c>
       <c r="S25">
-        <v>0.0004402793795538379</v>
+        <v>0.0006138892073150951</v>
       </c>
       <c r="T25">
-        <v>0.0002941150325131683</v>
+        <v>0.0004110512329052498</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H26">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I26">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J26">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>162.9753976666667</v>
+        <v>260.332835</v>
       </c>
       <c r="N26">
-        <v>488.926193</v>
+        <v>780.998505</v>
       </c>
       <c r="O26">
-        <v>0.4955278697341596</v>
+        <v>0.5646673237729521</v>
       </c>
       <c r="P26">
-        <v>0.4962014278748991</v>
+        <v>0.5666740189798604</v>
       </c>
       <c r="Q26">
-        <v>6536.323567948071</v>
+        <v>5555.389627671999</v>
       </c>
       <c r="R26">
-        <v>58826.91211153265</v>
+        <v>49998.50664904799</v>
       </c>
       <c r="S26">
-        <v>0.0535744963056331</v>
+        <v>0.03262971558067525</v>
       </c>
       <c r="T26">
-        <v>0.05368317977590328</v>
+        <v>0.03277257034077458</v>
       </c>
     </row>
   </sheetData>
